--- a/prodinfo/mea/output/res20251114.xlsx
+++ b/prodinfo/mea/output/res20251114.xlsx
@@ -415,35 +415,35 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>Samsung Galaxy S9 FE+ Tablet - Wi-Fi, 12.4", 128 GB, Octa Core, Grey</v>
+        <v>Huawei Pura 80, 256 GB, 12 GB RAM, Gold, 4G LTE, Huawei Kirin 9010S</v>
       </c>
       <c r="B2" t="str">
-        <v>1999.1304</v>
+        <v>2346.9565</v>
       </c>
       <c r="C2" t="str">
-        <v>https://www.jarir.com/sa-en/default-category/samsung-galaxy-s9fe-tablet-pc-624939.html</v>
+        <v>https://www.jarir.com/sa-en/huawei-pura-80-pro-smartphones-664781.html</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>Samsung Galaxy Tab S9 Ultra Tablet - Wi-Fi, 14.6", 256 GB, Octa Core, Graphite</v>
+        <v>Huawei Pura 80 Pro, 512 GB, 12 GB RAM, Glazed Black, 4G LTE, Huawei Kirin 9020</v>
       </c>
       <c r="B3" t="str">
-        <v>4346.9565</v>
+        <v>2781.7391</v>
       </c>
       <c r="C3" t="str">
-        <v>https://www.jarir.com/sa-en/samsung-galaxy-tab-s9-ultra-tablet-pc-622742.html</v>
+        <v>https://www.jarir.com/sa-en/huawei-pura-80-pro-smartphones-662079.html</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>Samsung Galaxy Tab S9+ Tablet - Wi-Fi, 12.4", 256 GB, Octa Core, Graphite</v>
+        <v>Huawei Pura 80 Pro, 512 GB, 12 GB RAM, Glazed Black, 4G LTE, Huawei Kirin 9020</v>
       </c>
       <c r="B4" t="str">
-        <v>3738.2609</v>
+        <v>2781.7391</v>
       </c>
       <c r="C4" t="str">
-        <v>https://www.jarir.com/sa-en/samsung-galaxy-tab-s9-tablet-pc-622743.html</v>
+        <v>https://www.jarir.com/sa-en/huawei-pura-80-pro-smartphones-662079.html</v>
       </c>
     </row>
   </sheetData>

--- a/prodinfo/mea/output/res20251114.xlsx
+++ b/prodinfo/mea/output/res20251114.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -412,6 +412,12 @@
       <c r="C1" t="str">
         <v>link</v>
       </c>
+      <c r="D1" t="str">
+        <v>prod.brand</v>
+      </c>
+      <c r="E1" t="str">
+        <v>prod.memory</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
@@ -423,6 +429,12 @@
       <c r="C2" t="str">
         <v>https://www.jarir.com/sa-en/huawei-pura-80-pro-smartphones-664781.html</v>
       </c>
+      <c r="D2" t="str">
+        <v>Huawei</v>
+      </c>
+      <c r="E2" t="str">
+        <v>256 GB</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -434,6 +446,12 @@
       <c r="C3" t="str">
         <v>https://www.jarir.com/sa-en/huawei-pura-80-pro-smartphones-662079.html</v>
       </c>
+      <c r="D3" t="str">
+        <v>Huawei</v>
+      </c>
+      <c r="E3" t="str">
+        <v>512 GB</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -445,10 +463,16 @@
       <c r="C4" t="str">
         <v>https://www.jarir.com/sa-en/huawei-pura-80-pro-smartphones-662079.html</v>
       </c>
+      <c r="D4" t="str">
+        <v>Huawei</v>
+      </c>
+      <c r="E4" t="str">
+        <v>512 GB</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C4"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E4"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/prodinfo/mea/output/res20251114.xlsx
+++ b/prodinfo/mea/output/res20251114.xlsx
@@ -413,10 +413,10 @@
         <v>link</v>
       </c>
       <c r="D1" t="str">
-        <v>prod.brand</v>
+        <v>brand</v>
       </c>
       <c r="E1" t="str">
-        <v>prod.memory</v>
+        <v>memory</v>
       </c>
     </row>
     <row r="2">

--- a/prodinfo/mea/output/res20251114.xlsx
+++ b/prodinfo/mea/output/res20251114.xlsx
@@ -432,9 +432,6 @@
       <c r="D2" t="str">
         <v>Huawei</v>
       </c>
-      <c r="E2" t="str">
-        <v>256 GB</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -449,9 +446,6 @@
       <c r="D3" t="str">
         <v>Huawei</v>
       </c>
-      <c r="E3" t="str">
-        <v>512 GB</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -465,9 +459,6 @@
       </c>
       <c r="D4" t="str">
         <v>Huawei</v>
-      </c>
-      <c r="E4" t="str">
-        <v>512 GB</v>
       </c>
     </row>
   </sheetData>

--- a/prodinfo/mea/output/res20251114.xlsx
+++ b/prodinfo/mea/output/res20251114.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -416,7 +416,10 @@
         <v>brand</v>
       </c>
       <c r="E1" t="str">
-        <v>memory</v>
+        <v>prod.model</v>
+      </c>
+      <c r="F1" t="str">
+        <v>prod.memory</v>
       </c>
     </row>
     <row r="2">
@@ -432,6 +435,12 @@
       <c r="D2" t="str">
         <v>Huawei</v>
       </c>
+      <c r="E2" t="str">
+        <v>Pura 80</v>
+      </c>
+      <c r="F2" t="str">
+        <v>256 GB</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -446,6 +455,12 @@
       <c r="D3" t="str">
         <v>Huawei</v>
       </c>
+      <c r="E3" t="str">
+        <v>Pura 80 Pro</v>
+      </c>
+      <c r="F3" t="str">
+        <v>512 GB</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -460,10 +475,16 @@
       <c r="D4" t="str">
         <v>Huawei</v>
       </c>
+      <c r="E4" t="str">
+        <v>Pura 80 Pro</v>
+      </c>
+      <c r="F4" t="str">
+        <v>512 GB</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E4"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F4"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/prodinfo/mea/output/res20251114.xlsx
+++ b/prodinfo/mea/output/res20251114.xlsx
@@ -464,19 +464,19 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>Huawei Pura 80 Pro, 512 GB, 12 GB RAM, Glazed Black, 4G LTE, Huawei Kirin 9020</v>
+        <v>Huawei Pura 80 Ultra, 512 GB, 16 GB RAM, Golden Black, 4G LTE, Huawei Kirin 9020</v>
       </c>
       <c r="B4" t="str">
-        <v>2781.7391</v>
+        <v>3999.1304</v>
       </c>
       <c r="C4" t="str">
-        <v>https://www.jarir.com/sa-en/huawei-pura-80-pro-smartphones-662079.html</v>
+        <v>https://www.jarir.com/sa-en/huawei-pura-80-pro-smartphones-662091.html</v>
       </c>
       <c r="D4" t="str">
         <v>Huawei</v>
       </c>
       <c r="E4" t="str">
-        <v>Pura 80 Pro</v>
+        <v>Pura 80 Ultra</v>
       </c>
       <c r="F4" t="str">
         <v>512 GB</v>

--- a/prodinfo/mea/output/res20251114.xlsx
+++ b/prodinfo/mea/output/res20251114.xlsx
@@ -416,10 +416,10 @@
         <v>brand</v>
       </c>
       <c r="E1" t="str">
-        <v>prod.model</v>
+        <v>model</v>
       </c>
       <c r="F1" t="str">
-        <v>prod.memory</v>
+        <v>memory</v>
       </c>
     </row>
     <row r="2">

--- a/prodinfo/mea/output/res20251114.xlsx
+++ b/prodinfo/mea/output/res20251114.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -421,6 +421,9 @@
       <c r="F1" t="str">
         <v>memory</v>
       </c>
+      <c r="G1" t="str">
+        <v>datetime</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
@@ -441,6 +444,9 @@
       <c r="F2" t="str">
         <v>256 GB</v>
       </c>
+      <c r="G2" t="str">
+        <v>2025-11-14 10:53:34</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -461,6 +467,9 @@
       <c r="F3" t="str">
         <v>512 GB</v>
       </c>
+      <c r="G3" t="str">
+        <v>2025-11-14 10:53:40</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -481,10 +490,13 @@
       <c r="F4" t="str">
         <v>512 GB</v>
       </c>
+      <c r="G4" t="str">
+        <v>2025-11-14 10:53:44</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F4"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G4"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/prodinfo/mea/output/res20251114.xlsx
+++ b/prodinfo/mea/output/res20251114.xlsx
@@ -445,7 +445,7 @@
         <v>256 GB</v>
       </c>
       <c r="G2" t="str">
-        <v>2025-11-14 10:53:34</v>
+        <v>2025-11-14 10:55:57</v>
       </c>
     </row>
     <row r="3">
@@ -468,7 +468,7 @@
         <v>512 GB</v>
       </c>
       <c r="G3" t="str">
-        <v>2025-11-14 10:53:40</v>
+        <v>2025-11-14 10:56:03</v>
       </c>
     </row>
     <row r="4">
@@ -491,7 +491,7 @@
         <v>512 GB</v>
       </c>
       <c r="G4" t="str">
-        <v>2025-11-14 10:53:44</v>
+        <v>2025-11-14 10:56:07</v>
       </c>
     </row>
   </sheetData>

--- a/prodinfo/mea/output/res20251114.xlsx
+++ b/prodinfo/mea/output/res20251114.xlsx
@@ -445,7 +445,7 @@
         <v>256 GB</v>
       </c>
       <c r="G2" t="str">
-        <v>2025-11-14 10:55:57</v>
+        <v>2025-11-14 11:23:30</v>
       </c>
     </row>
     <row r="3">
@@ -468,7 +468,7 @@
         <v>512 GB</v>
       </c>
       <c r="G3" t="str">
-        <v>2025-11-14 10:56:03</v>
+        <v>2025-11-14 11:23:36</v>
       </c>
     </row>
     <row r="4">
@@ -491,7 +491,7 @@
         <v>512 GB</v>
       </c>
       <c r="G4" t="str">
-        <v>2025-11-14 10:56:07</v>
+        <v>2025-11-14 11:23:40</v>
       </c>
     </row>
   </sheetData>

--- a/prodinfo/mea/output/res20251114.xlsx
+++ b/prodinfo/mea/output/res20251114.xlsx
@@ -445,7 +445,7 @@
         <v>256 GB</v>
       </c>
       <c r="G2" t="str">
-        <v>2025-11-14 11:23:30</v>
+        <v>2025-11-14 11:25:47</v>
       </c>
     </row>
     <row r="3">
@@ -468,7 +468,7 @@
         <v>512 GB</v>
       </c>
       <c r="G3" t="str">
-        <v>2025-11-14 11:23:36</v>
+        <v>2025-11-14 11:25:52</v>
       </c>
     </row>
     <row r="4">
@@ -491,7 +491,7 @@
         <v>512 GB</v>
       </c>
       <c r="G4" t="str">
-        <v>2025-11-14 11:23:40</v>
+        <v>2025-11-14 11:25:56</v>
       </c>
     </row>
   </sheetData>

--- a/prodinfo/mea/output/res20251114.xlsx
+++ b/prodinfo/mea/output/res20251114.xlsx
@@ -445,7 +445,7 @@
         <v>256 GB</v>
       </c>
       <c r="G2" t="str">
-        <v>2025-11-14 11:25:47</v>
+        <v>2025-11-14 12:28:15</v>
       </c>
     </row>
     <row r="3">
@@ -468,7 +468,7 @@
         <v>512 GB</v>
       </c>
       <c r="G3" t="str">
-        <v>2025-11-14 11:25:52</v>
+        <v>2025-11-14 12:28:21</v>
       </c>
     </row>
     <row r="4">
@@ -491,7 +491,7 @@
         <v>512 GB</v>
       </c>
       <c r="G4" t="str">
-        <v>2025-11-14 11:25:56</v>
+        <v>2025-11-14 12:28:26</v>
       </c>
     </row>
   </sheetData>

--- a/prodinfo/mea/output/res20251114.xlsx
+++ b/prodinfo/mea/output/res20251114.xlsx
@@ -445,7 +445,7 @@
         <v>256 GB</v>
       </c>
       <c r="G2" t="str">
-        <v>2025-11-14 12:28:15</v>
+        <v>2025-11-14 13:35:21</v>
       </c>
     </row>
     <row r="3">
@@ -468,7 +468,7 @@
         <v>512 GB</v>
       </c>
       <c r="G3" t="str">
-        <v>2025-11-14 12:28:21</v>
+        <v>2025-11-14 13:35:27</v>
       </c>
     </row>
     <row r="4">
@@ -491,7 +491,7 @@
         <v>512 GB</v>
       </c>
       <c r="G4" t="str">
-        <v>2025-11-14 12:28:26</v>
+        <v>2025-11-14 13:35:32</v>
       </c>
     </row>
   </sheetData>

--- a/prodinfo/mea/output/res20251114.xlsx
+++ b/prodinfo/mea/output/res20251114.xlsx
@@ -445,7 +445,7 @@
         <v>256 GB</v>
       </c>
       <c r="G2" t="str">
-        <v>2025-11-14 13:35:21</v>
+        <v>2025-11-14 13:37:55</v>
       </c>
     </row>
     <row r="3">
@@ -468,7 +468,7 @@
         <v>512 GB</v>
       </c>
       <c r="G3" t="str">
-        <v>2025-11-14 13:35:27</v>
+        <v>2025-11-14 13:38:01</v>
       </c>
     </row>
     <row r="4">
@@ -491,7 +491,7 @@
         <v>512 GB</v>
       </c>
       <c r="G4" t="str">
-        <v>2025-11-14 13:35:32</v>
+        <v>2025-11-14 13:38:05</v>
       </c>
     </row>
   </sheetData>

--- a/prodinfo/mea/output/res20251114.xlsx
+++ b/prodinfo/mea/output/res20251114.xlsx
@@ -445,7 +445,7 @@
         <v>256 GB</v>
       </c>
       <c r="G2" t="str">
-        <v>2025-11-14 13:37:55</v>
+        <v>2025-11-14 13:43:21</v>
       </c>
     </row>
     <row r="3">
@@ -468,7 +468,7 @@
         <v>512 GB</v>
       </c>
       <c r="G3" t="str">
-        <v>2025-11-14 13:38:01</v>
+        <v>2025-11-14 13:43:27</v>
       </c>
     </row>
     <row r="4">
@@ -491,7 +491,7 @@
         <v>512 GB</v>
       </c>
       <c r="G4" t="str">
-        <v>2025-11-14 13:38:05</v>
+        <v>2025-11-14 13:43:31</v>
       </c>
     </row>
   </sheetData>

--- a/prodinfo/mea/output/res20251114.xlsx
+++ b/prodinfo/mea/output/res20251114.xlsx
@@ -445,7 +445,7 @@
         <v>256 GB</v>
       </c>
       <c r="G2" t="str">
-        <v>2025-11-14 13:43:21</v>
+        <v>2025-11-14 13:54:31</v>
       </c>
     </row>
     <row r="3">
@@ -468,7 +468,7 @@
         <v>512 GB</v>
       </c>
       <c r="G3" t="str">
-        <v>2025-11-14 13:43:27</v>
+        <v>2025-11-14 13:54:37</v>
       </c>
     </row>
     <row r="4">
@@ -491,7 +491,7 @@
         <v>512 GB</v>
       </c>
       <c r="G4" t="str">
-        <v>2025-11-14 13:43:31</v>
+        <v>2025-11-14 13:54:41</v>
       </c>
     </row>
   </sheetData>

--- a/prodinfo/mea/output/res20251114.xlsx
+++ b/prodinfo/mea/output/res20251114.xlsx
@@ -445,7 +445,7 @@
         <v>256 GB</v>
       </c>
       <c r="G2" t="str">
-        <v>2025-11-14 13:54:31</v>
+        <v>2025-11-14 14:14:56</v>
       </c>
     </row>
     <row r="3">
@@ -468,7 +468,7 @@
         <v>512 GB</v>
       </c>
       <c r="G3" t="str">
-        <v>2025-11-14 13:54:37</v>
+        <v>2025-11-14 14:15:02</v>
       </c>
     </row>
     <row r="4">
@@ -491,7 +491,7 @@
         <v>512 GB</v>
       </c>
       <c r="G4" t="str">
-        <v>2025-11-14 13:54:41</v>
+        <v>2025-11-14 14:15:06</v>
       </c>
     </row>
   </sheetData>

--- a/prodinfo/mea/output/res20251114.xlsx
+++ b/prodinfo/mea/output/res20251114.xlsx
@@ -445,7 +445,7 @@
         <v>256 GB</v>
       </c>
       <c r="G2" t="str">
-        <v>2025-11-14 14:14:56</v>
+        <v>2025-11-14 14:15:35</v>
       </c>
     </row>
     <row r="3">
@@ -468,7 +468,7 @@
         <v>512 GB</v>
       </c>
       <c r="G3" t="str">
-        <v>2025-11-14 14:15:02</v>
+        <v>2025-11-14 14:15:39</v>
       </c>
     </row>
     <row r="4">
@@ -491,7 +491,7 @@
         <v>512 GB</v>
       </c>
       <c r="G4" t="str">
-        <v>2025-11-14 14:15:06</v>
+        <v>2025-11-14 14:15:44</v>
       </c>
     </row>
   </sheetData>

--- a/prodinfo/mea/output/res20251114.xlsx
+++ b/prodinfo/mea/output/res20251114.xlsx
@@ -445,7 +445,7 @@
         <v>256 GB</v>
       </c>
       <c r="G2" t="str">
-        <v>2025-11-14 14:15:35</v>
+        <v>2025-11-14 14:16:46</v>
       </c>
     </row>
     <row r="3">
@@ -468,7 +468,7 @@
         <v>512 GB</v>
       </c>
       <c r="G3" t="str">
-        <v>2025-11-14 14:15:39</v>
+        <v>2025-11-14 14:16:51</v>
       </c>
     </row>
     <row r="4">
@@ -491,7 +491,7 @@
         <v>512 GB</v>
       </c>
       <c r="G4" t="str">
-        <v>2025-11-14 14:15:44</v>
+        <v>2025-11-14 14:16:55</v>
       </c>
     </row>
   </sheetData>

--- a/prodinfo/mea/output/res20251114.xlsx
+++ b/prodinfo/mea/output/res20251114.xlsx
@@ -445,7 +445,7 @@
         <v>256 GB</v>
       </c>
       <c r="G2" t="str">
-        <v>2025-11-14 14:16:46</v>
+        <v>2025-11-14 14:20:47</v>
       </c>
     </row>
     <row r="3">
@@ -468,7 +468,7 @@
         <v>512 GB</v>
       </c>
       <c r="G3" t="str">
-        <v>2025-11-14 14:16:51</v>
+        <v>2025-11-14 14:20:53</v>
       </c>
     </row>
     <row r="4">
@@ -491,7 +491,7 @@
         <v>512 GB</v>
       </c>
       <c r="G4" t="str">
-        <v>2025-11-14 14:16:55</v>
+        <v>2025-11-14 14:20:57</v>
       </c>
     </row>
   </sheetData>

--- a/prodinfo/mea/output/res20251114.xlsx
+++ b/prodinfo/mea/output/res20251114.xlsx
@@ -445,7 +445,7 @@
         <v>256 GB</v>
       </c>
       <c r="G2" t="str">
-        <v>2025-11-14 14:20:47</v>
+        <v>2025-11-14 01:23:42</v>
       </c>
     </row>
     <row r="3">
@@ -468,7 +468,7 @@
         <v>512 GB</v>
       </c>
       <c r="G3" t="str">
-        <v>2025-11-14 14:20:53</v>
+        <v>2025-11-14 01:23:47</v>
       </c>
     </row>
     <row r="4">
@@ -491,7 +491,7 @@
         <v>512 GB</v>
       </c>
       <c r="G4" t="str">
-        <v>2025-11-14 14:20:57</v>
+        <v>2025-11-14 01:23:52</v>
       </c>
     </row>
   </sheetData>

--- a/prodinfo/mea/output/res20251114.xlsx
+++ b/prodinfo/mea/output/res20251114.xlsx
@@ -445,7 +445,7 @@
         <v>256 GB</v>
       </c>
       <c r="G2" t="str">
-        <v>2025-11-14 01:23:42</v>
+        <v>2025-11-14 14:30:19</v>
       </c>
     </row>
     <row r="3">
@@ -468,7 +468,7 @@
         <v>512 GB</v>
       </c>
       <c r="G3" t="str">
-        <v>2025-11-14 01:23:47</v>
+        <v>2025-11-14 14:30:25</v>
       </c>
     </row>
     <row r="4">
@@ -491,7 +491,7 @@
         <v>512 GB</v>
       </c>
       <c r="G4" t="str">
-        <v>2025-11-14 01:23:52</v>
+        <v>2025-11-14 14:30:29</v>
       </c>
     </row>
   </sheetData>

--- a/prodinfo/mea/output/res20251114.xlsx
+++ b/prodinfo/mea/output/res20251114.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -445,7 +445,7 @@
         <v>256 GB</v>
       </c>
       <c r="G2" t="str">
-        <v>2025-11-14 14:30:19</v>
+        <v>2025-11-14 14:39:59</v>
       </c>
     </row>
     <row r="3">
@@ -468,7 +468,7 @@
         <v>512 GB</v>
       </c>
       <c r="G3" t="str">
-        <v>2025-11-14 14:30:25</v>
+        <v>2025-11-14 14:40:05</v>
       </c>
     </row>
     <row r="4">
@@ -491,12 +491,81 @@
         <v>512 GB</v>
       </c>
       <c r="G4" t="str">
-        <v>2025-11-14 14:30:29</v>
+        <v>2025-11-14 14:40:09</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>Samsung Galaxy S25, 256 GB, 12 GB RAM, Navy, 5G, Snapdragon 8 Elite</v>
+      </c>
+      <c r="B5" t="str">
+        <v>2433.913</v>
+      </c>
+      <c r="C5" t="str">
+        <v>https://www.jarir.com/sa-en/samsung-galaxy-s25-smartphones-651003.html</v>
+      </c>
+      <c r="D5" t="str">
+        <v>Samsung</v>
+      </c>
+      <c r="E5" t="str">
+        <v>Galaxy S25</v>
+      </c>
+      <c r="F5" t="str">
+        <v>256 GB</v>
+      </c>
+      <c r="G5" t="str">
+        <v>2025-11-14 14:40:14</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>Samsung Galaxy S25 Edge, 512 GB, 12 GB RAM, Titanium Jet Black, 5G, Snapdragon 8 Elite</v>
+      </c>
+      <c r="B6" t="str">
+        <v>3042.6087</v>
+      </c>
+      <c r="C6" t="str">
+        <v>https://www.jarir.com/sa-en/samsung-galaxy-s25-edge-smartphones-657517.html</v>
+      </c>
+      <c r="D6" t="str">
+        <v>Samsung</v>
+      </c>
+      <c r="E6" t="str">
+        <v>Galaxy S25 Edge</v>
+      </c>
+      <c r="F6" t="str">
+        <v>512 GB</v>
+      </c>
+      <c r="G6" t="str">
+        <v>2025-11-14 14:40:18</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>Samsung Galaxy S25 Ultra, 256 GB, 12 GB RAM, Titanium Silver Blue, 5G, Snapdragon 8 Elite</v>
+      </c>
+      <c r="B7" t="str">
+        <v>3477.3913</v>
+      </c>
+      <c r="C7" t="str">
+        <v>https://www.jarir.com/sa-en/samsung-galaxy-s25-ultra-smartphones-650944.html</v>
+      </c>
+      <c r="D7" t="str">
+        <v>Samsung</v>
+      </c>
+      <c r="E7" t="str">
+        <v>Galaxy S25 Ultra</v>
+      </c>
+      <c r="F7" t="str">
+        <v>256 GB</v>
+      </c>
+      <c r="G7" t="str">
+        <v>2025-11-14 14:40:23</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G4"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G7"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/prodinfo/mea/output/res20251114.xlsx
+++ b/prodinfo/mea/output/res20251114.xlsx
@@ -445,7 +445,7 @@
         <v>256 GB</v>
       </c>
       <c r="G2" t="str">
-        <v>2025-11-14 14:39:59</v>
+        <v>2025-11-14 16:15:27</v>
       </c>
     </row>
     <row r="3">
@@ -468,7 +468,7 @@
         <v>512 GB</v>
       </c>
       <c r="G3" t="str">
-        <v>2025-11-14 14:40:05</v>
+        <v>2025-11-14 16:15:33</v>
       </c>
     </row>
     <row r="4">
@@ -491,7 +491,7 @@
         <v>512 GB</v>
       </c>
       <c r="G4" t="str">
-        <v>2025-11-14 14:40:09</v>
+        <v>2025-11-14 16:15:37</v>
       </c>
     </row>
     <row r="5">
@@ -514,7 +514,7 @@
         <v>256 GB</v>
       </c>
       <c r="G5" t="str">
-        <v>2025-11-14 14:40:14</v>
+        <v>2025-11-14 16:15:42</v>
       </c>
     </row>
     <row r="6">
@@ -537,7 +537,7 @@
         <v>512 GB</v>
       </c>
       <c r="G6" t="str">
-        <v>2025-11-14 14:40:18</v>
+        <v>2025-11-14 16:15:46</v>
       </c>
     </row>
     <row r="7">
@@ -560,7 +560,7 @@
         <v>256 GB</v>
       </c>
       <c r="G7" t="str">
-        <v>2025-11-14 14:40:23</v>
+        <v>2025-11-14 16:15:50</v>
       </c>
     </row>
   </sheetData>
